--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed2/result_data_KNN.xlsx
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.094</v>
+        <v>-21.687</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.894</v>
+        <v>-12.774</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.306</v>
+        <v>-20.257</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.585</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,7 +842,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.86</v>
+        <v>-12.687</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.756</v>
+        <v>-21.796</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.964</v>
+        <v>5.513</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.554</v>
+        <v>6.145</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.367999999999999</v>
+        <v>7.997000000000002</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.324</v>
+        <v>5.274</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.796</v>
+        <v>6.132000000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.044</v>
+        <v>5.295</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.944</v>
+        <v>-22.018</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.544</v>
+        <v>4.685</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.023999999999999</v>
+        <v>4.906999999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.374</v>
+        <v>-21.352</v>
       </c>
       <c r="B57" t="n">
-        <v>6.884</v>
+        <v>5.948</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.194</v>
+        <v>-13.287</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.222</v>
+        <v>-22.5</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.4</v>
+        <v>-13.508</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.694</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.888</v>
+        <v>-11.941</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.81</v>
+        <v>7.342999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.256</v>
+        <v>-21.192</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.944</v>
+        <v>-21.985</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.05</v>
+        <v>-13.597</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.674</v>
+        <v>5.946</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.508</v>
+        <v>5.833</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.892</v>
+        <v>-21.536</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.694</v>
+        <v>-12.45</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.794</v>
+        <v>-13.174</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.826</v>
+        <v>-13.564</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
